--- a/results/tables/TableO2A.xlsx
+++ b/results/tables/TableO2A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Atlas</t>
   </si>
@@ -137,16 +137,13 @@
     <t xml:space="preserve">Bilateral</t>
   </si>
   <si>
-    <t xml:space="preserve">Medial Frontal Cortex</t>
+    <t xml:space="preserve">Ventromedial Frontal Cortex</t>
   </si>
   <si>
     <t xml:space="preserve">Medial Anterior Sfg</t>
   </si>
   <si>
     <t xml:space="preserve">Medial Sfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crus Ii / Viib</t>
   </si>
   <si>
     <t xml:space="preserve">Crus I / Ii / Viib</t>
@@ -158,7 +155,7 @@
     <t xml:space="preserve">Posterior Vi / Crus I</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Vi / Crus I</t>
+    <t xml:space="preserve">Lateral Vi</t>
   </si>
   <si>
     <t xml:space="preserve">HOSubcortical</t>
@@ -8166,7 +8163,7 @@
       </c>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -8196,7 +8193,7 @@
       </c>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
@@ -8226,7 +8223,7 @@
       </c>
       <c r="C257"/>
       <c r="D257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -8256,7 +8253,7 @@
       </c>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -8286,7 +8283,7 @@
       </c>
       <c r="C259"/>
       <c r="D259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E259" t="s">
         <v>18</v>
@@ -8316,7 +8313,7 @@
       </c>
       <c r="C260"/>
       <c r="D260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E260" t="s">
         <v>18</v>
@@ -8346,7 +8343,7 @@
       </c>
       <c r="C261"/>
       <c r="D261" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E261" t="s">
         <v>18</v>
@@ -8376,7 +8373,7 @@
       </c>
       <c r="C262"/>
       <c r="D262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E262" t="s">
         <v>18</v>
@@ -8406,7 +8403,7 @@
       </c>
       <c r="C263"/>
       <c r="D263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -8436,7 +8433,7 @@
       </c>
       <c r="C264"/>
       <c r="D264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -8466,7 +8463,7 @@
       </c>
       <c r="C265"/>
       <c r="D265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -8496,7 +8493,7 @@
       </c>
       <c r="C266"/>
       <c r="D266" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E266" t="s">
         <v>13</v>
@@ -8526,7 +8523,7 @@
       </c>
       <c r="C267"/>
       <c r="D267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E267" t="s">
         <v>13</v>
@@ -8556,7 +8553,7 @@
       </c>
       <c r="C268"/>
       <c r="D268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
@@ -8586,7 +8583,7 @@
       </c>
       <c r="C269"/>
       <c r="D269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -8616,7 +8613,7 @@
       </c>
       <c r="C270"/>
       <c r="D270" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E270" t="s">
         <v>18</v>
@@ -8646,7 +8643,7 @@
       </c>
       <c r="C271"/>
       <c r="D271" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E271" t="s">
         <v>18</v>
@@ -8676,7 +8673,7 @@
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E272" t="s">
         <v>18</v>
@@ -8706,7 +8703,7 @@
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -8736,7 +8733,7 @@
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E274" t="s">
         <v>23</v>
@@ -8766,7 +8763,7 @@
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E275" t="s">
         <v>23</v>
@@ -8796,7 +8793,7 @@
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E276" t="s">
         <v>23</v>
@@ -8826,7 +8823,7 @@
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -8856,7 +8853,7 @@
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -8886,7 +8883,7 @@
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
@@ -8916,7 +8913,7 @@
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E280" t="s">
         <v>13</v>
@@ -8946,7 +8943,7 @@
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E281" t="s">
         <v>18</v>
@@ -8976,7 +8973,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E282" t="s">
         <v>18</v>
@@ -9006,7 +9003,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
@@ -9036,7 +9033,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E284" t="s">
         <v>18</v>
@@ -9066,7 +9063,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E285" t="s">
         <v>23</v>
@@ -9096,7 +9093,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E286" t="s">
         <v>23</v>
@@ -9126,7 +9123,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E287" t="s">
         <v>23</v>
@@ -9156,7 +9153,7 @@
       </c>
       <c r="C288"/>
       <c r="D288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
@@ -9186,7 +9183,7 @@
       </c>
       <c r="C289"/>
       <c r="D289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
@@ -9216,7 +9213,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -9246,7 +9243,7 @@
       </c>
       <c r="C291"/>
       <c r="D291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E291" t="s">
         <v>13</v>
@@ -9276,7 +9273,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E292" t="s">
         <v>18</v>
@@ -9306,7 +9303,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E293" t="s">
         <v>18</v>
@@ -9336,7 +9333,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E294" t="s">
         <v>18</v>
@@ -9366,7 +9363,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E295" t="s">
         <v>18</v>
@@ -9396,7 +9393,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E296" t="s">
         <v>23</v>
@@ -9426,7 +9423,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E297" t="s">
         <v>23</v>
@@ -9456,7 +9453,7 @@
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E298" t="s">
         <v>23</v>
@@ -9479,14 +9476,14 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B299" t="s">
         <v>11</v>
       </c>
       <c r="C299"/>
       <c r="D299" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E299" t="s">
         <v>13</v>
@@ -9509,14 +9506,14 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E300" t="s">
         <v>13</v>
@@ -9539,14 +9536,14 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B301" t="s">
         <v>11</v>
       </c>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E301" t="s">
         <v>13</v>
@@ -9569,14 +9566,14 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E302" t="s">
         <v>13</v>
@@ -9599,14 +9596,14 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E303" t="s">
         <v>18</v>
@@ -9629,14 +9626,14 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B304" t="s">
         <v>11</v>
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E304" t="s">
         <v>18</v>
@@ -9659,14 +9656,14 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B305" t="s">
         <v>11</v>
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E305" t="s">
         <v>18</v>
@@ -9689,14 +9686,14 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B306" t="s">
         <v>11</v>
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E306" t="s">
         <v>18</v>
@@ -9719,14 +9716,14 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B307" t="s">
         <v>11</v>
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E307" t="s">
         <v>23</v>
@@ -9749,14 +9746,14 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B308" t="s">
         <v>11</v>
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E308" t="s">
         <v>23</v>
@@ -9779,14 +9776,14 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E309" t="s">
         <v>23</v>
@@ -9809,14 +9806,14 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B310" t="s">
         <v>11</v>
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
@@ -9839,14 +9836,14 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B311" t="s">
         <v>11</v>
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E311" t="s">
         <v>13</v>
@@ -9869,14 +9866,14 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E312" t="s">
         <v>13</v>
@@ -9899,14 +9896,14 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B313" t="s">
         <v>11</v>
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E313" t="s">
         <v>13</v>
@@ -9929,14 +9926,14 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B314" t="s">
         <v>11</v>
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E314" t="s">
         <v>18</v>
@@ -9959,14 +9956,14 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s">
         <v>11</v>
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E315" t="s">
         <v>18</v>
@@ -9989,14 +9986,14 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B316" t="s">
         <v>11</v>
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E316" t="s">
         <v>18</v>
@@ -10019,14 +10016,14 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B317" t="s">
         <v>11</v>
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E317" t="s">
         <v>18</v>
@@ -10049,14 +10046,14 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B318" t="s">
         <v>11</v>
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E318" t="s">
         <v>23</v>
@@ -10079,14 +10076,14 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B319" t="s">
         <v>11</v>
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E319" t="s">
         <v>23</v>
@@ -10109,14 +10106,14 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s">
         <v>11</v>
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E320" t="s">
         <v>23</v>
@@ -10139,14 +10136,14 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B321" t="s">
         <v>11</v>
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E321" t="s">
         <v>13</v>
@@ -10169,14 +10166,14 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E322" t="s">
         <v>13</v>
@@ -10199,14 +10196,14 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B323" t="s">
         <v>11</v>
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E323" t="s">
         <v>13</v>
@@ -10229,14 +10226,14 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B324" t="s">
         <v>11</v>
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E324" t="s">
         <v>13</v>
@@ -10259,14 +10256,14 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B325" t="s">
         <v>11</v>
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E325" t="s">
         <v>18</v>
@@ -10289,14 +10286,14 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B326" t="s">
         <v>11</v>
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E326" t="s">
         <v>18</v>
@@ -10319,14 +10316,14 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B327" t="s">
         <v>11</v>
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E327" t="s">
         <v>18</v>
@@ -10349,14 +10346,14 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B328" t="s">
         <v>11</v>
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E328" t="s">
         <v>18</v>
@@ -10379,14 +10376,14 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s">
         <v>11</v>
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E329" t="s">
         <v>23</v>
@@ -10409,14 +10406,14 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s">
         <v>11</v>
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E330" t="s">
         <v>23</v>
@@ -10439,14 +10436,14 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s">
         <v>11</v>
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E331" t="s">
         <v>23</v>
@@ -10469,14 +10466,14 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s">
         <v>11</v>
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
@@ -10499,14 +10496,14 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E333" t="s">
         <v>13</v>
@@ -10529,14 +10526,14 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B334" t="s">
         <v>11</v>
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E334" t="s">
         <v>13</v>
@@ -10559,14 +10556,14 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s">
         <v>11</v>
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E335" t="s">
         <v>13</v>
@@ -10589,14 +10586,14 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B336" t="s">
         <v>11</v>
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E336" t="s">
         <v>18</v>
@@ -10619,14 +10616,14 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B337" t="s">
         <v>11</v>
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E337" t="s">
         <v>18</v>
@@ -10649,14 +10646,14 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B338" t="s">
         <v>11</v>
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E338" t="s">
         <v>18</v>
@@ -10679,14 +10676,14 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B339" t="s">
         <v>11</v>
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E339" t="s">
         <v>18</v>
@@ -10709,14 +10706,14 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B340" t="s">
         <v>11</v>
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E340" t="s">
         <v>23</v>
@@ -10739,14 +10736,14 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B341" t="s">
         <v>11</v>
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E341" t="s">
         <v>23</v>
@@ -10769,14 +10766,14 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B342" t="s">
         <v>11</v>
       </c>
       <c r="C342"/>
       <c r="D342" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E342" t="s">
         <v>23</v>
@@ -10799,14 +10796,14 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s">
         <v>11</v>
       </c>
       <c r="C343"/>
       <c r="D343" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E343" t="s">
         <v>13</v>
@@ -10829,14 +10826,14 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
       </c>
       <c r="C344"/>
       <c r="D344" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E344" t="s">
         <v>13</v>
@@ -10859,14 +10856,14 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B345" t="s">
         <v>11</v>
       </c>
       <c r="C345"/>
       <c r="D345" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E345" t="s">
         <v>13</v>
@@ -10889,14 +10886,14 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
       </c>
       <c r="C346"/>
       <c r="D346" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E346" t="s">
         <v>13</v>
@@ -10919,14 +10916,14 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
       </c>
       <c r="C347"/>
       <c r="D347" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E347" t="s">
         <v>18</v>
@@ -10949,14 +10946,14 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B348" t="s">
         <v>11</v>
       </c>
       <c r="C348"/>
       <c r="D348" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E348" t="s">
         <v>18</v>
@@ -10979,14 +10976,14 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B349" t="s">
         <v>11</v>
       </c>
       <c r="C349"/>
       <c r="D349" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E349" t="s">
         <v>18</v>
@@ -11009,14 +11006,14 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B350" t="s">
         <v>11</v>
       </c>
       <c r="C350"/>
       <c r="D350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E350" t="s">
         <v>18</v>
@@ -11039,14 +11036,14 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B351" t="s">
         <v>11</v>
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E351" t="s">
         <v>23</v>
@@ -11069,14 +11066,14 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E352" t="s">
         <v>23</v>
@@ -11099,14 +11096,14 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B353" t="s">
         <v>11</v>
       </c>
       <c r="C353"/>
       <c r="D353" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E353" t="s">
         <v>23</v>
@@ -11129,14 +11126,14 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B354" t="s">
         <v>11</v>
       </c>
       <c r="C354"/>
       <c r="D354" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E354" t="s">
         <v>13</v>
@@ -11159,14 +11156,14 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B355" t="s">
         <v>11</v>
       </c>
       <c r="C355"/>
       <c r="D355" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E355" t="s">
         <v>13</v>
@@ -11189,14 +11186,14 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B356" t="s">
         <v>11</v>
       </c>
       <c r="C356"/>
       <c r="D356" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E356" t="s">
         <v>13</v>
@@ -11219,14 +11216,14 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B357" t="s">
         <v>11</v>
       </c>
       <c r="C357"/>
       <c r="D357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E357" t="s">
         <v>13</v>
@@ -11249,14 +11246,14 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B358" t="s">
         <v>11</v>
       </c>
       <c r="C358"/>
       <c r="D358" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E358" t="s">
         <v>18</v>
@@ -11279,14 +11276,14 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B359" t="s">
         <v>11</v>
       </c>
       <c r="C359"/>
       <c r="D359" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E359" t="s">
         <v>18</v>
@@ -11309,14 +11306,14 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
       </c>
       <c r="C360"/>
       <c r="D360" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E360" t="s">
         <v>18</v>
@@ -11339,14 +11336,14 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B361" t="s">
         <v>11</v>
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E361" t="s">
         <v>18</v>
@@ -11369,14 +11366,14 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B362" t="s">
         <v>11</v>
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E362" t="s">
         <v>23</v>
@@ -11399,14 +11396,14 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B363" t="s">
         <v>11</v>
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E363" t="s">
         <v>23</v>
@@ -11429,14 +11426,14 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B364" t="s">
         <v>11</v>
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E364" t="s">
         <v>23</v>
@@ -11459,14 +11456,14 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B365" t="s">
         <v>11</v>
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E365" t="s">
         <v>13</v>
@@ -11489,14 +11486,14 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B366" t="s">
         <v>11</v>
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E366" t="s">
         <v>13</v>
@@ -11519,14 +11516,14 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B367" t="s">
         <v>11</v>
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E367" t="s">
         <v>13</v>
@@ -11549,14 +11546,14 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B368" t="s">
         <v>11</v>
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E368" t="s">
         <v>13</v>
@@ -11579,14 +11576,14 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B369" t="s">
         <v>11</v>
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E369" t="s">
         <v>18</v>
@@ -11609,14 +11606,14 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B370" t="s">
         <v>11</v>
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E370" t="s">
         <v>18</v>
@@ -11639,14 +11636,14 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B371" t="s">
         <v>11</v>
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E371" t="s">
         <v>18</v>
@@ -11669,14 +11666,14 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B372" t="s">
         <v>11</v>
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E372" t="s">
         <v>18</v>
@@ -11699,14 +11696,14 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B373" t="s">
         <v>11</v>
       </c>
       <c r="C373"/>
       <c r="D373" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E373" t="s">
         <v>23</v>
@@ -11729,14 +11726,14 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B374" t="s">
         <v>11</v>
       </c>
       <c r="C374"/>
       <c r="D374" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E374" t="s">
         <v>23</v>
@@ -11759,14 +11756,14 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B375" t="s">
         <v>11</v>
       </c>
       <c r="C375"/>
       <c r="D375" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E375" t="s">
         <v>23</v>
@@ -11789,14 +11786,14 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B376" t="s">
         <v>31</v>
       </c>
       <c r="C376"/>
       <c r="D376" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E376" t="s">
         <v>13</v>
@@ -11819,14 +11816,14 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B377" t="s">
         <v>31</v>
       </c>
       <c r="C377"/>
       <c r="D377" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E377" t="s">
         <v>13</v>
@@ -11849,14 +11846,14 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B378" t="s">
         <v>31</v>
       </c>
       <c r="C378"/>
       <c r="D378" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E378" t="s">
         <v>13</v>
@@ -11879,14 +11876,14 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B379" t="s">
         <v>31</v>
       </c>
       <c r="C379"/>
       <c r="D379" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E379" t="s">
         <v>13</v>
@@ -11909,14 +11906,14 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B380" t="s">
         <v>31</v>
       </c>
       <c r="C380"/>
       <c r="D380" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E380" t="s">
         <v>18</v>
@@ -11939,14 +11936,14 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B381" t="s">
         <v>31</v>
       </c>
       <c r="C381"/>
       <c r="D381" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E381" t="s">
         <v>18</v>
@@ -11969,14 +11966,14 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B382" t="s">
         <v>31</v>
       </c>
       <c r="C382"/>
       <c r="D382" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E382" t="s">
         <v>18</v>
@@ -11999,14 +11996,14 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B383" t="s">
         <v>31</v>
       </c>
       <c r="C383"/>
       <c r="D383" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E383" t="s">
         <v>18</v>
@@ -12029,14 +12026,14 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B384" t="s">
         <v>31</v>
       </c>
       <c r="C384"/>
       <c r="D384" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E384" t="s">
         <v>23</v>
@@ -12059,14 +12056,14 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B385" t="s">
         <v>31</v>
       </c>
       <c r="C385"/>
       <c r="D385" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E385" t="s">
         <v>23</v>
@@ -12089,14 +12086,14 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B386" t="s">
         <v>31</v>
       </c>
       <c r="C386"/>
       <c r="D386" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E386" t="s">
         <v>23</v>
@@ -12119,14 +12116,14 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B387" t="s">
         <v>31</v>
       </c>
       <c r="C387"/>
       <c r="D387" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E387" t="s">
         <v>13</v>
@@ -12149,14 +12146,14 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B388" t="s">
         <v>31</v>
       </c>
       <c r="C388"/>
       <c r="D388" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E388" t="s">
         <v>13</v>
@@ -12179,14 +12176,14 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B389" t="s">
         <v>31</v>
       </c>
       <c r="C389"/>
       <c r="D389" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E389" t="s">
         <v>13</v>
@@ -12209,14 +12206,14 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B390" t="s">
         <v>31</v>
       </c>
       <c r="C390"/>
       <c r="D390" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E390" t="s">
         <v>13</v>
@@ -12239,14 +12236,14 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B391" t="s">
         <v>31</v>
       </c>
       <c r="C391"/>
       <c r="D391" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E391" t="s">
         <v>18</v>
@@ -12269,14 +12266,14 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B392" t="s">
         <v>31</v>
       </c>
       <c r="C392"/>
       <c r="D392" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E392" t="s">
         <v>18</v>
@@ -12299,14 +12296,14 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B393" t="s">
         <v>31</v>
       </c>
       <c r="C393"/>
       <c r="D393" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E393" t="s">
         <v>18</v>
@@ -12329,14 +12326,14 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B394" t="s">
         <v>31</v>
       </c>
       <c r="C394"/>
       <c r="D394" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E394" t="s">
         <v>18</v>
@@ -12359,14 +12356,14 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B395" t="s">
         <v>31</v>
       </c>
       <c r="C395"/>
       <c r="D395" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E395" t="s">
         <v>23</v>
@@ -12389,14 +12386,14 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B396" t="s">
         <v>31</v>
       </c>
       <c r="C396"/>
       <c r="D396" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E396" t="s">
         <v>23</v>
@@ -12419,14 +12416,14 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B397" t="s">
         <v>31</v>
       </c>
       <c r="C397"/>
       <c r="D397" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E397" t="s">
         <v>23</v>
@@ -12449,14 +12446,14 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B398" t="s">
         <v>31</v>
       </c>
       <c r="C398"/>
       <c r="D398" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E398" t="s">
         <v>13</v>
@@ -12479,14 +12476,14 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B399" t="s">
         <v>31</v>
       </c>
       <c r="C399"/>
       <c r="D399" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E399" t="s">
         <v>13</v>
@@ -12509,14 +12506,14 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B400" t="s">
         <v>31</v>
       </c>
       <c r="C400"/>
       <c r="D400" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E400" t="s">
         <v>13</v>
@@ -12539,14 +12536,14 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B401" t="s">
         <v>31</v>
       </c>
       <c r="C401"/>
       <c r="D401" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E401" t="s">
         <v>13</v>
@@ -12569,14 +12566,14 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B402" t="s">
         <v>31</v>
       </c>
       <c r="C402"/>
       <c r="D402" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E402" t="s">
         <v>18</v>
@@ -12599,14 +12596,14 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B403" t="s">
         <v>31</v>
       </c>
       <c r="C403"/>
       <c r="D403" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E403" t="s">
         <v>18</v>
@@ -12629,14 +12626,14 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B404" t="s">
         <v>31</v>
       </c>
       <c r="C404"/>
       <c r="D404" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E404" t="s">
         <v>18</v>
@@ -12659,14 +12656,14 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B405" t="s">
         <v>31</v>
       </c>
       <c r="C405"/>
       <c r="D405" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E405" t="s">
         <v>18</v>
@@ -12689,14 +12686,14 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B406" t="s">
         <v>31</v>
       </c>
       <c r="C406"/>
       <c r="D406" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E406" t="s">
         <v>23</v>
@@ -12719,14 +12716,14 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B407" t="s">
         <v>31</v>
       </c>
       <c r="C407"/>
       <c r="D407" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E407" t="s">
         <v>23</v>
@@ -12749,14 +12746,14 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B408" t="s">
         <v>31</v>
       </c>
       <c r="C408"/>
       <c r="D408" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E408" t="s">
         <v>23</v>
@@ -12779,14 +12776,14 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B409" t="s">
         <v>31</v>
       </c>
       <c r="C409"/>
       <c r="D409" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E409" t="s">
         <v>13</v>
@@ -12809,14 +12806,14 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B410" t="s">
         <v>31</v>
       </c>
       <c r="C410"/>
       <c r="D410" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E410" t="s">
         <v>13</v>
@@ -12839,14 +12836,14 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B411" t="s">
         <v>31</v>
       </c>
       <c r="C411"/>
       <c r="D411" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E411" t="s">
         <v>13</v>
@@ -12869,14 +12866,14 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B412" t="s">
         <v>31</v>
       </c>
       <c r="C412"/>
       <c r="D412" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E412" t="s">
         <v>13</v>
@@ -12899,14 +12896,14 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B413" t="s">
         <v>31</v>
       </c>
       <c r="C413"/>
       <c r="D413" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E413" t="s">
         <v>18</v>
@@ -12929,14 +12926,14 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B414" t="s">
         <v>31</v>
       </c>
       <c r="C414"/>
       <c r="D414" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E414" t="s">
         <v>18</v>
@@ -12959,14 +12956,14 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B415" t="s">
         <v>31</v>
       </c>
       <c r="C415"/>
       <c r="D415" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E415" t="s">
         <v>18</v>
@@ -12989,14 +12986,14 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B416" t="s">
         <v>31</v>
       </c>
       <c r="C416"/>
       <c r="D416" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E416" t="s">
         <v>18</v>
@@ -13019,14 +13016,14 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B417" t="s">
         <v>31</v>
       </c>
       <c r="C417"/>
       <c r="D417" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E417" t="s">
         <v>23</v>
@@ -13049,14 +13046,14 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B418" t="s">
         <v>31</v>
       </c>
       <c r="C418"/>
       <c r="D418" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E418" t="s">
         <v>23</v>
@@ -13079,14 +13076,14 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B419" t="s">
         <v>31</v>
       </c>
       <c r="C419"/>
       <c r="D419" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E419" t="s">
         <v>23</v>
@@ -13109,14 +13106,14 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B420" t="s">
         <v>31</v>
       </c>
       <c r="C420"/>
       <c r="D420" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E420" t="s">
         <v>13</v>
@@ -13139,14 +13136,14 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B421" t="s">
         <v>31</v>
       </c>
       <c r="C421"/>
       <c r="D421" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E421" t="s">
         <v>13</v>
@@ -13169,14 +13166,14 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B422" t="s">
         <v>31</v>
       </c>
       <c r="C422"/>
       <c r="D422" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E422" t="s">
         <v>13</v>
@@ -13199,14 +13196,14 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B423" t="s">
         <v>31</v>
       </c>
       <c r="C423"/>
       <c r="D423" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E423" t="s">
         <v>13</v>
@@ -13229,14 +13226,14 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B424" t="s">
         <v>31</v>
       </c>
       <c r="C424"/>
       <c r="D424" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E424" t="s">
         <v>18</v>
@@ -13259,14 +13256,14 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B425" t="s">
         <v>31</v>
       </c>
       <c r="C425"/>
       <c r="D425" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E425" t="s">
         <v>18</v>
@@ -13289,14 +13286,14 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B426" t="s">
         <v>31</v>
       </c>
       <c r="C426"/>
       <c r="D426" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E426" t="s">
         <v>18</v>
@@ -13319,14 +13316,14 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B427" t="s">
         <v>31</v>
       </c>
       <c r="C427"/>
       <c r="D427" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E427" t="s">
         <v>18</v>
@@ -13349,14 +13346,14 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B428" t="s">
         <v>31</v>
       </c>
       <c r="C428"/>
       <c r="D428" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E428" t="s">
         <v>23</v>
@@ -13379,14 +13376,14 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B429" t="s">
         <v>31</v>
       </c>
       <c r="C429"/>
       <c r="D429" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E429" t="s">
         <v>23</v>
@@ -13409,14 +13406,14 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B430" t="s">
         <v>31</v>
       </c>
       <c r="C430"/>
       <c r="D430" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E430" t="s">
         <v>23</v>
@@ -13439,14 +13436,14 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B431" t="s">
         <v>31</v>
       </c>
       <c r="C431"/>
       <c r="D431" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E431" t="s">
         <v>13</v>
@@ -13469,14 +13466,14 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B432" t="s">
         <v>31</v>
       </c>
       <c r="C432"/>
       <c r="D432" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E432" t="s">
         <v>13</v>
@@ -13499,14 +13496,14 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B433" t="s">
         <v>31</v>
       </c>
       <c r="C433"/>
       <c r="D433" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E433" t="s">
         <v>13</v>
@@ -13529,14 +13526,14 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B434" t="s">
         <v>31</v>
       </c>
       <c r="C434"/>
       <c r="D434" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E434" t="s">
         <v>13</v>
@@ -13559,14 +13556,14 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B435" t="s">
         <v>31</v>
       </c>
       <c r="C435"/>
       <c r="D435" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E435" t="s">
         <v>18</v>
@@ -13589,14 +13586,14 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B436" t="s">
         <v>31</v>
       </c>
       <c r="C436"/>
       <c r="D436" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E436" t="s">
         <v>18</v>
@@ -13619,14 +13616,14 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B437" t="s">
         <v>31</v>
       </c>
       <c r="C437"/>
       <c r="D437" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E437" t="s">
         <v>18</v>
@@ -13649,14 +13646,14 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B438" t="s">
         <v>31</v>
       </c>
       <c r="C438"/>
       <c r="D438" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E438" t="s">
         <v>18</v>
@@ -13679,14 +13676,14 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B439" t="s">
         <v>31</v>
       </c>
       <c r="C439"/>
       <c r="D439" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E439" t="s">
         <v>23</v>
@@ -13709,14 +13706,14 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B440" t="s">
         <v>31</v>
       </c>
       <c r="C440"/>
       <c r="D440" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E440" t="s">
         <v>23</v>
@@ -13739,14 +13736,14 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B441" t="s">
         <v>31</v>
       </c>
       <c r="C441"/>
       <c r="D441" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E441" t="s">
         <v>23</v>
@@ -13769,14 +13766,14 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B442" t="s">
         <v>31</v>
       </c>
       <c r="C442"/>
       <c r="D442" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E442" t="s">
         <v>13</v>
@@ -13799,14 +13796,14 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B443" t="s">
         <v>31</v>
       </c>
       <c r="C443"/>
       <c r="D443" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E443" t="s">
         <v>13</v>
@@ -13829,14 +13826,14 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B444" t="s">
         <v>31</v>
       </c>
       <c r="C444"/>
       <c r="D444" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E444" t="s">
         <v>13</v>
@@ -13859,14 +13856,14 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B445" t="s">
         <v>31</v>
       </c>
       <c r="C445"/>
       <c r="D445" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E445" t="s">
         <v>13</v>
@@ -13889,14 +13886,14 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B446" t="s">
         <v>31</v>
       </c>
       <c r="C446"/>
       <c r="D446" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E446" t="s">
         <v>18</v>
@@ -13919,14 +13916,14 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B447" t="s">
         <v>31</v>
       </c>
       <c r="C447"/>
       <c r="D447" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E447" t="s">
         <v>18</v>
@@ -13949,14 +13946,14 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B448" t="s">
         <v>31</v>
       </c>
       <c r="C448"/>
       <c r="D448" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E448" t="s">
         <v>18</v>
@@ -13979,14 +13976,14 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B449" t="s">
         <v>31</v>
       </c>
       <c r="C449"/>
       <c r="D449" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E449" t="s">
         <v>18</v>
@@ -14009,14 +14006,14 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B450" t="s">
         <v>31</v>
       </c>
       <c r="C450"/>
       <c r="D450" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E450" t="s">
         <v>23</v>
@@ -14039,14 +14036,14 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B451" t="s">
         <v>31</v>
       </c>
       <c r="C451"/>
       <c r="D451" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E451" t="s">
         <v>23</v>
@@ -14069,14 +14066,14 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B452" t="s">
         <v>31</v>
       </c>
       <c r="C452"/>
       <c r="D452" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E452" t="s">
         <v>23</v>
